--- a/POM_Demo/src/test/resources/testData/TestData.xlsx
+++ b/POM_Demo/src/test/resources/testData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM_Demo\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C6FA7-5ECF-4405-A416-5FA7138A406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6466940F-200D-4CD7-9ECB-222534D02E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7EEE763-33EC-4C69-B772-640EA969177C}"/>
   </bookViews>
@@ -444,7 +444,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
